--- a/1semestre/SIO/P/ASVS-checklist-en.xlsx
+++ b/1semestre/SIO/P/ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/j_gaspar_ua_pt/Documents/Desktop/UA/leci_3ano/1semestre/SIO/P/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{1DCADFB5-9F1B-4F38-81AA-5D9F551A132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80BE2B32-32D7-4174-AC28-DDE35675A271}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{1DCADFB5-9F1B-4F38-81AA-5D9F551A132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136D7A4D-B77B-481F-816A-417604530E8C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="708">
   <si>
     <t>Area</t>
     <phoneticPr fontId="3"/>
@@ -462,49 +462,62 @@
     <t>Verify that user set passwords are at least 12 characters in length (after multiple spaces are combined). ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>https://prnt.sc/512ulZ_j9KW3</t>
+  </si>
+  <si>
+    <t>Granted by auth0 authenticantion</t>
+  </si>
+  <si>
+    <t>auth0</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Verify that passwords 64 characters or longer are permitted but may be no longer than 128 characters. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auth0
+</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Verify that password truncation is not performed. However, consecutive multiple spaces may be replaced by a single space. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>Verify that any printable Unicode character, including language neutral characters such as spaces and Emojis are permitted in passwords.</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>Verify users can change their password.</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>Verify that password change functionality requires the user's current and new password.</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>Verify that passwords submitted during account registration, login, and password change are checked against a set of breached passwords either locally (such as the top 1,000 or 10,000 most common passwords which match the system's password policy) or using an external API. If using an API a zero knowledge proof or other mechanism should be used to ensure that the plain text password is not sent or used in verifying the breach status of the password. If the password is breached, the application must require the user to set a new non-breached password. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>Verify that a password strength meter is provided to help users set a stronger password.</t>
+  </si>
+  <si>
     <t>Non-valid</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Verify that passwords 64 characters or longer are permitted but may be no longer than 128 characters. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Verify that password truncation is not performed. However, consecutive multiple spaces may be replaced by a single space. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>Verify that any printable Unicode character, including language neutral characters such as spaces and Emojis are permitted in passwords.</t>
-  </si>
-  <si>
-    <t>2.1.5</t>
-  </si>
-  <si>
-    <t>Verify users can change their password.</t>
-  </si>
-  <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
-    <t>Verify that password change functionality requires the user's current and new password.</t>
-  </si>
-  <si>
-    <t>2.1.7</t>
-  </si>
-  <si>
-    <t>Verify that passwords submitted during account registration, login, and password change are checked against a set of breached passwords either locally (such as the top 1,000 or 10,000 most common passwords which match the system's password policy) or using an external API. If using an API a zero knowledge proof or other mechanism should be used to ensure that the plain text password is not sent or used in verifying the breach status of the password. If the password is breached, the application must require the user to set a new non-breached password. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
-  </si>
-  <si>
-    <t>2.1.8</t>
-  </si>
-  <si>
-    <t>Verify that a password strength meter is provided to help users set a stronger password.</t>
   </si>
   <si>
     <t>2.1.9</t>
@@ -788,6 +801,9 @@
   </si>
   <si>
     <t>Verify that time-based OTPs have a defined lifetime before expiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granted by auth0 multi factor authentication. </t>
   </si>
   <si>
     <t>2.8.2</t>
@@ -956,6 +972,9 @@
     <t>Verify that the application gives the option to terminate all other active sessions after a successful password change (including change via password reset/recovery), and that this is effective across the application, federated login (if present), and any relying parties.</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>3.3.4</t>
   </si>
   <si>
@@ -1588,9 +1607,6 @@
     <t>Verify that users are provided clear language regarding collection and use of supplied personal information and that users have provided opt-in consent for the use of that data before it is used in any way.</t>
   </si>
   <si>
-    <t>8.3.4</t>
-  </si>
-  <si>
     <t>Verify that all sensitive data created and processed by the application has been identified, and ensure that a policy is in place on how to deal with sensitive data. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
@@ -2185,13 +2201,61 @@
   </si>
   <si>
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/7NskFjLlS6-k</t>
+  </si>
+  <si>
+    <t>Granted by auth0 authentication</t>
+  </si>
+  <si>
+    <t>auth0 authentication ignores anything after 72 bytes on the password!!!</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/9t1WGcf_m-Lr</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/3LXL26SsKz3F</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/9Vj--C-sQ0ZC</t>
+  </si>
+  <si>
+    <t>Fernet</t>
+  </si>
+  <si>
+    <t>While CBC is vulnerable to Padding Oracle attakcs, Fernet uses AES-CBC alongside an SHA-256 HMAC to mitigate risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensitive data processed by the application is encrypted </t>
+  </si>
+  <si>
+    <t>Ensured by sqlite query markers</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/AvQ7oem11yzO</t>
+  </si>
+  <si>
+    <t>Granted by flask's MAX_CONTENT_LENGTH configuration parameter</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/1uFZFpzYa3M5</t>
+  </si>
+  <si>
+    <t>Granted by flask's method parameter when routing</t>
+  </si>
+  <si>
+    <t>flask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3020,12 +3084,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3348,6 +3413,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3357,13 +3434,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="4">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3462,7 +3538,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3482,7 +3558,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3569,25 +3645,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.333333333333336</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>77.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47.058823529411761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3596,19 +3672,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0909090909090917</c:v>
+                  <c:v>77.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>71.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>30.76923076923077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1603053435114496</c:v>
+                  <c:v>58.653846153846153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3649,7 +3725,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1361787184"/>
@@ -3678,7 +3754,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1361412624"/>
@@ -3696,7 +3772,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3718,14 +3794,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3751,6 +3827,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4077,23 +4157,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="5" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" style="28"/>
-    <col min="6" max="6" width="60.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" style="28" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="28"/>
+    <col min="1" max="1" width="19.6640625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" style="28"/>
+    <col min="6" max="6" width="60.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4125,8 +4205,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4147,8 +4227,8 @@
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A3" s="126"/>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="132"/>
       <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
@@ -4169,8 +4249,8 @@
       <c r="I3" s="20"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A4" s="126"/>
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="132"/>
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
@@ -4191,8 +4271,8 @@
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="31.15">
-      <c r="A5" s="126"/>
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="132"/>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -4213,8 +4293,8 @@
       <c r="I5" s="20"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A6" s="126"/>
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="132"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -4235,8 +4315,8 @@
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="78">
-      <c r="A7" s="126"/>
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="132"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -4257,8 +4337,8 @@
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A8" s="126"/>
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="132"/>
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -4279,8 +4359,8 @@
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A9" s="126" t="s">
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="132" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4303,8 +4383,8 @@
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="78">
-      <c r="A10" s="126"/>
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="132"/>
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
@@ -4325,8 +4405,8 @@
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A11" s="126"/>
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="132"/>
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
@@ -4347,8 +4427,8 @@
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A12" s="126"/>
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="132"/>
       <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
@@ -4369,8 +4449,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A13" s="126" t="s">
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="132" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4393,8 +4473,8 @@
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="31.15">
-      <c r="A14" s="126"/>
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="132"/>
       <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
@@ -4415,8 +4495,8 @@
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A15" s="126"/>
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="132"/>
       <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
@@ -4437,8 +4517,8 @@
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="93.6">
-      <c r="A16" s="126"/>
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="132"/>
       <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
@@ -4459,8 +4539,8 @@
       <c r="I16" s="18"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" ht="93.6">
-      <c r="A17" s="126"/>
+    <row r="17" spans="1:10" s="15" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="132"/>
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
@@ -4481,8 +4561,8 @@
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A18" s="126" t="s">
+    <row r="18" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="132" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4505,8 +4585,8 @@
       <c r="I18" s="18"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" s="15" customFormat="1" ht="78">
-      <c r="A19" s="126"/>
+    <row r="19" spans="1:10" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A19" s="132"/>
       <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
@@ -4527,8 +4607,8 @@
       <c r="I19" s="18"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A20" s="126"/>
+    <row r="20" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="132"/>
       <c r="B20" s="8" t="s">
         <v>51</v>
       </c>
@@ -4549,8 +4629,8 @@
       <c r="I20" s="18"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A21" s="126"/>
+    <row r="21" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="132"/>
       <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
@@ -4571,8 +4651,8 @@
       <c r="I21" s="18"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A22" s="126" t="s">
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="132" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4595,8 +4675,8 @@
       <c r="I22" s="18"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A23" s="126"/>
+    <row r="23" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="132"/>
       <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
@@ -4617,8 +4697,8 @@
       <c r="I23" s="18"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" ht="31.15">
-      <c r="A24" s="126"/>
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="132"/>
       <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
@@ -4639,8 +4719,8 @@
       <c r="I24" s="18"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A25" s="126"/>
+    <row r="25" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="132"/>
       <c r="B25" s="8" t="s">
         <v>62</v>
       </c>
@@ -4661,8 +4741,8 @@
       <c r="I25" s="18"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A26" s="126" t="s">
+    <row r="26" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="132" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4685,8 +4765,8 @@
       <c r="I26" s="18"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A27" s="126"/>
+    <row r="27" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="132"/>
       <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
@@ -4705,8 +4785,8 @@
       <c r="I27" s="18"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" s="15" customFormat="1" ht="31.15">
-      <c r="A28" s="126" t="s">
+    <row r="28" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="132" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4727,8 +4807,8 @@
       <c r="I28" s="18"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="15" customFormat="1" ht="78">
-      <c r="A29" s="126"/>
+    <row r="29" spans="1:10" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A29" s="132"/>
       <c r="B29" s="8" t="s">
         <v>72</v>
       </c>
@@ -4747,8 +4827,8 @@
       <c r="I29" s="18"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1" ht="78">
-      <c r="A30" s="126" t="s">
+    <row r="30" spans="1:10" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4771,8 +4851,8 @@
       <c r="I30" s="18"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A31" s="126"/>
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="132"/>
       <c r="B31" s="8" t="s">
         <v>77</v>
       </c>
@@ -4793,7 +4873,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" s="15" customFormat="1" ht="84">
+    <row r="32" spans="1:10" s="15" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
@@ -4817,8 +4897,8 @@
       <c r="I32" s="18"/>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A33" s="126" t="s">
+    <row r="33" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="132" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4841,8 +4921,8 @@
       <c r="I33" s="18"/>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A34" s="126"/>
+    <row r="34" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="132"/>
       <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
@@ -4863,8 +4943,8 @@
       <c r="I34" s="18"/>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A35" s="126"/>
+    <row r="35" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="132"/>
       <c r="B35" s="8" t="s">
         <v>87</v>
       </c>
@@ -4885,8 +4965,8 @@
       <c r="I35" s="18"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" s="15" customFormat="1" ht="31.15">
-      <c r="A36" s="126" t="s">
+    <row r="36" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="132" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -4909,8 +4989,8 @@
       <c r="I36" s="18"/>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="1:10" s="15" customFormat="1" ht="93.6">
-      <c r="A37" s="126"/>
+    <row r="37" spans="1:10" s="15" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="132"/>
       <c r="B37" s="8" t="s">
         <v>92</v>
       </c>
@@ -4931,8 +5011,8 @@
       <c r="I37" s="18"/>
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A38" s="126" t="s">
+    <row r="38" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="132" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -4955,8 +5035,8 @@
       <c r="I38" s="18"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" spans="1:10" s="15" customFormat="1" ht="46.9">
-      <c r="A39" s="126"/>
+    <row r="39" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="132"/>
       <c r="B39" s="8" t="s">
         <v>97</v>
       </c>
@@ -4977,8 +5057,8 @@
       <c r="I39" s="18"/>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" spans="1:10" s="15" customFormat="1" ht="31.15">
-      <c r="A40" s="126"/>
+    <row r="40" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="132"/>
       <c r="B40" s="8" t="s">
         <v>99</v>
       </c>
@@ -4999,8 +5079,8 @@
       <c r="I40" s="18"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A41" s="126"/>
+    <row r="41" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="132"/>
       <c r="B41" s="8" t="s">
         <v>101</v>
       </c>
@@ -5019,8 +5099,8 @@
       <c r="I41" s="18"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" spans="1:10" s="15" customFormat="1" ht="93.6">
-      <c r="A42" s="126"/>
+    <row r="42" spans="1:10" s="15" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="132"/>
       <c r="B42" s="8" t="s">
         <v>103</v>
       </c>
@@ -5041,8 +5121,8 @@
       <c r="I42" s="18"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" spans="1:10" s="15" customFormat="1" ht="62.45">
-      <c r="A43" s="126"/>
+    <row r="43" spans="1:10" s="15" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="132"/>
       <c r="B43" s="8" t="s">
         <v>105</v>
       </c>
@@ -5101,20 +5181,20 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="88.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="1" width="23.6640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="88.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -5146,12 +5226,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>504</v>
+    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>509</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -5161,17 +5241,19 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="G2" s="40"/>
+        <v>511</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>149</v>
+      </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -5181,17 +5263,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>508</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>513</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -5201,19 +5285,21 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>510</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>515</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="63" thickBot="1">
-      <c r="A5" s="127" t="s">
-        <v>511</v>
+    <row r="5" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133" t="s">
+        <v>516</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -5223,7 +5309,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
@@ -5232,10 +5318,10 @@
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="63" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -5245,7 +5331,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
@@ -5254,10 +5340,10 @@
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -5267,7 +5353,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
@@ -5276,10 +5362,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -5289,7 +5375,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>13</v>
@@ -5298,10 +5384,10 @@
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C9" s="86">
         <v>3</v>
@@ -5311,7 +5397,7 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="72" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>13</v>
@@ -5344,24 +5430,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="88.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="88.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -5393,12 +5479,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.6" thickBot="1">
+    <row r="2" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C2" s="89">
         <v>3</v>
@@ -5408,7 +5494,7 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>13</v>
@@ -5417,12 +5503,12 @@
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A3" s="127" t="s">
-        <v>525</v>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133" t="s">
+        <v>530</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -5432,19 +5518,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -5454,19 +5540,19 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C5" s="64">
         <v>3</v>
@@ -5476,19 +5562,19 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C6" s="64">
         <v>3</v>
@@ -5498,19 +5584,19 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C7" s="64">
         <v>3</v>
@@ -5520,19 +5606,19 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C8" s="64">
         <v>3</v>
@@ -5542,21 +5628,21 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A9" s="127" t="s">
-        <v>538</v>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133" t="s">
+        <v>543</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -5566,17 +5652,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>540</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>545</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="63" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -5586,17 +5674,19 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>547</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -5606,9 +5696,11 @@
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="72" t="s">
-        <v>544</v>
-      </c>
-      <c r="G11" s="25"/>
+        <v>549</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="27"/>
@@ -5638,23 +5730,23 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="71.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="71.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="15" customWidth="1"/>
     <col min="10" max="10" width="37" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -5686,12 +5778,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>545</v>
+    <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>550</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -5701,17 +5793,19 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>547</v>
-      </c>
-      <c r="G2" s="40"/>
+        <v>552</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -5721,17 +5815,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>549</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>554</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -5741,17 +5837,19 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>551</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>556</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -5761,17 +5859,19 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="71" t="s">
-        <v>553</v>
-      </c>
-      <c r="G5" s="18"/>
+        <v>558</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -5781,17 +5881,19 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="71" t="s">
-        <v>555</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>560</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -5801,7 +5903,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="71" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
@@ -5810,10 +5912,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -5823,7 +5925,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="71" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>13</v>
@@ -5832,10 +5934,10 @@
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -5845,7 +5947,7 @@
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="72" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>13</v>
@@ -5877,24 +5979,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="78.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="78.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="65.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -5926,12 +6028,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>562</v>
+    <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>567</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -5941,17 +6043,23 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+        <v>569</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="135" t="s">
+        <v>702</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>703</v>
+      </c>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -5961,7 +6069,7 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>13</v>
@@ -5970,10 +6078,10 @@
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -5983,7 +6091,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
@@ -5992,12 +6100,12 @@
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="42.6" thickBot="1">
+    <row r="5" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -6007,7 +6115,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
@@ -6016,12 +6124,12 @@
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127" t="s">
-        <v>572</v>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133" t="s">
+        <v>577</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -6031,17 +6139,19 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>579</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -6051,17 +6161,21 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>576</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+        <v>581</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="129" t="s">
+        <v>705</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -6071,17 +6185,19 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>578</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>583</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="63" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -6091,17 +6207,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>580</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>585</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -6111,17 +6229,19 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>582</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>587</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C11" s="63">
         <v>2</v>
@@ -6131,7 +6251,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="71" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>13</v>
@@ -6140,12 +6260,12 @@
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A12" s="127" t="s">
-        <v>585</v>
+    <row r="12" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133" t="s">
+        <v>590</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -6155,17 +6275,19 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="71" t="s">
-        <v>587</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>592</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133"/>
       <c r="B13" s="57" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -6175,19 +6297,21 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="71" t="s">
-        <v>589</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>594</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A14" s="127" t="s">
-        <v>590</v>
+    <row r="14" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133" t="s">
+        <v>595</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C14" s="61">
         <v>1</v>
@@ -6197,17 +6321,19 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="71" t="s">
-        <v>592</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+        <v>597</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="129"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133"/>
       <c r="B15" s="57" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C15" s="61">
         <v>1</v>
@@ -6217,19 +6343,21 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="71" t="s">
-        <v>594</v>
-      </c>
-      <c r="G15" s="18"/>
+        <v>599</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="47.45" thickBot="1">
+    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C16" s="65">
         <v>1</v>
@@ -6239,7 +6367,7 @@
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="72" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>6</v>
@@ -6262,6 +6390,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{236BA3AF-FD64-485A-9E6A-88C87E59B86D}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{D8395BAD-AC8B-408F-AB1C-75DC0771830C}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -6275,22 +6407,22 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" style="68" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" style="15"/>
-    <col min="6" max="6" width="84.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="2" max="5" width="8.6640625" style="15"/>
+    <col min="6" max="6" width="84.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="49" style="15" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -6322,12 +6454,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>598</v>
+    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>603</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -6337,17 +6469,19 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="40"/>
+        <v>605</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -6357,17 +6491,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>607</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -6377,17 +6513,19 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>604</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>609</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -6397,7 +6535,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
@@ -6406,10 +6544,10 @@
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -6419,7 +6557,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
@@ -6428,12 +6566,12 @@
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A7" s="127" t="s">
-        <v>609</v>
+    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>614</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -6443,17 +6581,21 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>611</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>616</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>706</v>
+      </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="16.149999999999999" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -6463,17 +6605,19 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>613</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>618</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -6483,17 +6627,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>615</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>620</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -6503,7 +6649,7 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>13</v>
@@ -6512,10 +6658,10 @@
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C11" s="63">
         <v>2</v>
@@ -6525,7 +6671,7 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>13</v>
@@ -6534,10 +6680,10 @@
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133"/>
       <c r="B12" s="57" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C12" s="63">
         <v>2</v>
@@ -6547,7 +6693,7 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>13</v>
@@ -6556,12 +6702,12 @@
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A13" s="127" t="s">
-        <v>622</v>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133" t="s">
+        <v>627</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -6571,17 +6717,17 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133"/>
       <c r="B14" s="57" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C14" s="63">
         <v>2</v>
@@ -6591,7 +6737,7 @@
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="71" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>13</v>
@@ -6600,12 +6746,12 @@
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="63" thickBot="1">
-      <c r="A15" s="127" t="s">
-        <v>627</v>
+    <row r="15" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133" t="s">
+        <v>632</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C15" s="63">
         <v>2</v>
@@ -6615,7 +6761,7 @@
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="71" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>13</v>
@@ -6624,10 +6770,10 @@
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133"/>
       <c r="B16" s="57" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -6637,7 +6783,7 @@
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="72" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>13</v>
@@ -6672,23 +6818,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="68" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" style="15"/>
-    <col min="6" max="6" width="88.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="1" width="21.33203125" style="68" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" style="15"/>
+    <col min="6" max="6" width="88.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -6720,12 +6866,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A2" s="128" t="s">
-        <v>632</v>
+    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="134" t="s">
+        <v>637</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C2" s="92">
         <v>2</v>
@@ -6733,7 +6879,7 @@
       <c r="D2" s="93"/>
       <c r="E2" s="94"/>
       <c r="F2" s="95" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>13</v>
@@ -6742,10 +6888,10 @@
       <c r="I2" s="96"/>
       <c r="J2" s="97"/>
     </row>
-    <row r="3" spans="1:10" ht="63" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C3" s="98">
         <v>2</v>
@@ -6755,7 +6901,7 @@
       </c>
       <c r="E3" s="100"/>
       <c r="F3" s="101" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="G3" s="102" t="s">
         <v>13</v>
@@ -6764,10 +6910,10 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C4" s="98">
         <v>2</v>
@@ -6777,7 +6923,7 @@
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="101" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="G4" s="102" t="s">
         <v>13</v>
@@ -6786,10 +6932,10 @@
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
     </row>
-    <row r="5" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C5" s="98">
         <v>2</v>
@@ -6797,7 +6943,7 @@
       <c r="D5" s="99"/>
       <c r="E5" s="100"/>
       <c r="F5" s="101" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G5" s="102" t="s">
         <v>13</v>
@@ -6806,10 +6952,10 @@
       <c r="I5" s="102"/>
       <c r="J5" s="103"/>
     </row>
-    <row r="6" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C6" s="104">
         <v>3</v>
@@ -6817,7 +6963,7 @@
       <c r="D6" s="99"/>
       <c r="E6" s="100"/>
       <c r="F6" s="101" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G6" s="102" t="s">
         <v>13</v>
@@ -6826,12 +6972,12 @@
       <c r="I6" s="102"/>
       <c r="J6" s="103"/>
     </row>
-    <row r="7" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A7" s="127" t="s">
-        <v>643</v>
+    <row r="7" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>648</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="C7" s="105">
         <v>1</v>
@@ -6841,17 +6987,19 @@
       </c>
       <c r="E7" s="100"/>
       <c r="F7" s="101" t="s">
-        <v>645</v>
-      </c>
-      <c r="G7" s="102"/>
+        <v>650</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H7" s="102"/>
       <c r="I7" s="102"/>
       <c r="J7" s="103"/>
     </row>
-    <row r="8" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C8" s="105">
         <v>1</v>
@@ -6861,17 +7009,19 @@
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="101" t="s">
-        <v>647</v>
-      </c>
-      <c r="G8" s="102"/>
+        <v>652</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="102"/>
       <c r="I8" s="102"/>
       <c r="J8" s="103"/>
     </row>
-    <row r="9" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C9" s="105">
         <v>1</v>
@@ -6881,17 +7031,19 @@
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="101" t="s">
-        <v>649</v>
-      </c>
-      <c r="G9" s="102"/>
+        <v>654</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
       <c r="J9" s="103"/>
     </row>
-    <row r="10" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C10" s="98">
         <v>2</v>
@@ -6901,7 +7053,7 @@
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="101" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G10" s="102" t="s">
         <v>13</v>
@@ -6910,10 +7062,10 @@
       <c r="I10" s="102"/>
       <c r="J10" s="103"/>
     </row>
-    <row r="11" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C11" s="98">
         <v>2</v>
@@ -6921,7 +7073,7 @@
       <c r="D11" s="99"/>
       <c r="E11" s="100"/>
       <c r="F11" s="101" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="G11" s="102" t="s">
         <v>13</v>
@@ -6930,10 +7082,10 @@
       <c r="I11" s="102"/>
       <c r="J11" s="103"/>
     </row>
-    <row r="12" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133"/>
       <c r="B12" s="57" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C12" s="98">
         <v>2</v>
@@ -6943,7 +7095,7 @@
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="101" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G12" s="102" t="s">
         <v>13</v>
@@ -6952,12 +7104,12 @@
       <c r="I12" s="102"/>
       <c r="J12" s="103"/>
     </row>
-    <row r="13" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A13" s="127" t="s">
-        <v>656</v>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133" t="s">
+        <v>661</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C13" s="105">
         <v>1</v>
@@ -6967,17 +7119,19 @@
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="101" t="s">
-        <v>658</v>
-      </c>
-      <c r="G13" s="102"/>
+        <v>663</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>6</v>
+      </c>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="103"/>
     </row>
-    <row r="14" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133"/>
       <c r="B14" s="57" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C14" s="105">
         <v>1</v>
@@ -6987,17 +7141,19 @@
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="101" t="s">
-        <v>660</v>
-      </c>
-      <c r="G14" s="102"/>
+        <v>665</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
       <c r="J14" s="103"/>
     </row>
-    <row r="15" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133"/>
       <c r="B15" s="57" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C15" s="105">
         <v>1</v>
@@ -7007,19 +7163,21 @@
       </c>
       <c r="E15" s="100"/>
       <c r="F15" s="101" t="s">
-        <v>662</v>
-      </c>
-      <c r="G15" s="102"/>
+        <v>667</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>6</v>
+      </c>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
       <c r="J15" s="103"/>
     </row>
-    <row r="16" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A16" s="127" t="s">
-        <v>663</v>
+    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133" t="s">
+        <v>668</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C16" s="105">
         <v>1</v>
@@ -7029,17 +7187,21 @@
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="101" t="s">
-        <v>665</v>
-      </c>
-      <c r="G16" s="102"/>
+        <v>670</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>6</v>
+      </c>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A17" s="127"/>
+      <c r="J16" s="103" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="133"/>
       <c r="B17" s="57" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C17" s="105">
         <v>1</v>
@@ -7049,17 +7211,19 @@
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="101" t="s">
-        <v>667</v>
-      </c>
-      <c r="G17" s="102"/>
+        <v>672</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
       <c r="J17" s="103"/>
     </row>
-    <row r="18" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="133"/>
       <c r="B18" s="57" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C18" s="105">
         <v>1</v>
@@ -7069,17 +7233,19 @@
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="101" t="s">
-        <v>669</v>
-      </c>
-      <c r="G18" s="102"/>
+        <v>674</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
       <c r="J18" s="103"/>
     </row>
-    <row r="19" spans="1:10" ht="16.149999999999999" thickBot="1">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="133"/>
       <c r="B19" s="57" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C19" s="105">
         <v>1</v>
@@ -7089,17 +7255,19 @@
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="101" t="s">
-        <v>671</v>
-      </c>
-      <c r="G19" s="102"/>
+        <v>676</v>
+      </c>
+      <c r="G19" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="J19" s="103"/>
     </row>
-    <row r="20" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="133"/>
       <c r="B20" s="57" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C20" s="105">
         <v>1</v>
@@ -7109,17 +7277,19 @@
       </c>
       <c r="E20" s="100"/>
       <c r="F20" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="G20" s="102"/>
+        <v>678</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="J20" s="103"/>
     </row>
-    <row r="21" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A21" s="127"/>
+    <row r="21" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="133"/>
       <c r="B21" s="57" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C21" s="105">
         <v>1</v>
@@ -7129,17 +7299,19 @@
       </c>
       <c r="E21" s="100"/>
       <c r="F21" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="G21" s="102"/>
+        <v>680</v>
+      </c>
+      <c r="G21" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="103"/>
     </row>
-    <row r="22" spans="1:10" ht="63" thickBot="1">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="133"/>
       <c r="B22" s="57" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C22" s="105">
         <v>1</v>
@@ -7149,19 +7321,21 @@
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="101" t="s">
-        <v>677</v>
-      </c>
-      <c r="G22" s="102"/>
+        <v>682</v>
+      </c>
+      <c r="G22" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="J22" s="103"/>
     </row>
-    <row r="23" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A23" s="127" t="s">
-        <v>678</v>
+    <row r="23" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="133" t="s">
+        <v>683</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C23" s="105">
         <v>1</v>
@@ -7171,17 +7345,19 @@
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="101" t="s">
-        <v>680</v>
-      </c>
-      <c r="G23" s="102"/>
+        <v>685</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="103"/>
     </row>
-    <row r="24" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="133"/>
       <c r="B24" s="57" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C24" s="105">
         <v>1</v>
@@ -7191,17 +7367,19 @@
       </c>
       <c r="E24" s="100"/>
       <c r="F24" s="101" t="s">
-        <v>682</v>
-      </c>
-      <c r="G24" s="102"/>
+        <v>687</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="103"/>
     </row>
-    <row r="25" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="133"/>
       <c r="B25" s="57" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C25" s="105">
         <v>1</v>
@@ -7211,17 +7389,19 @@
       </c>
       <c r="E25" s="100"/>
       <c r="F25" s="101" t="s">
-        <v>684</v>
-      </c>
-      <c r="G25" s="102"/>
+        <v>689</v>
+      </c>
+      <c r="G25" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="103"/>
     </row>
-    <row r="26" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="133"/>
       <c r="B26" s="57" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C26" s="106">
         <v>2</v>
@@ -7231,7 +7411,7 @@
       </c>
       <c r="E26" s="108"/>
       <c r="F26" s="109" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G26" s="110" t="s">
         <v>13</v>
@@ -7268,20 +7448,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="120" customFormat="1">
+    <row r="1" spans="1:6" s="120" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="118" t="s">
         <v>107</v>
       </c>
@@ -7298,7 +7478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="112" customFormat="1">
+    <row r="2" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="121" t="s">
         <v>112</v>
       </c>
@@ -7316,31 +7496,31 @@
       </c>
       <c r="E2" s="116"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="121" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="113">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="114">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="115">
         <f t="shared" si="0"/>
-        <v>14.285714285714285</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="E3" s="116"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="121" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="114">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
@@ -7348,17 +7528,17 @@
       </c>
       <c r="D4" s="115">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <v>75</v>
       </c>
       <c r="E4" s="116"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="121" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="113">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="114">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -7366,35 +7546,35 @@
       </c>
       <c r="D5" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="E5" s="116"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="121" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="113">
         <f>COUNTIF('Input Validation'!G2:G31,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" s="114">
         <f>COUNTIF('Input Validation'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D6" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="E6" s="116"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="121" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="113">
         <f>COUNTIF('Cryptography at Rest'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="114">
         <f>COUNTIF('Cryptography at Rest'!G2:G17,"&lt;&gt;Not Applicable")</f>
@@ -7402,12 +7582,12 @@
       </c>
       <c r="D7" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="116"/>
       <c r="F7" s="117"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="121" t="s">
         <v>118</v>
       </c>
@@ -7425,25 +7605,25 @@
       </c>
       <c r="E8" s="116"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="121" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="113">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="114">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E9" s="116"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="121" t="s">
         <v>120</v>
       </c>
@@ -7461,7 +7641,7 @@
       </c>
       <c r="E10" s="116"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="121" t="s">
         <v>121</v>
       </c>
@@ -7471,57 +7651,57 @@
       </c>
       <c r="C11" s="114">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="115">
+        <v>0</v>
+      </c>
+      <c r="D11" s="115" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E11" s="116"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="121" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="113">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="114">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" s="116"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="121" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="113">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="114">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="115">
         <f t="shared" si="0"/>
-        <v>9.0909090909090917</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="E13" s="116"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="121" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="113">
         <f>COUNTIF('Web Services'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="114">
         <f>COUNTIF('Web Services'!G2:G16,"&lt;&gt;Not Applicable")</f>
@@ -7529,43 +7709,43 @@
       </c>
       <c r="D14" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="E14" s="116"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="121" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="113">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="114">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="E15" s="116"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="121" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="113">
         <f>SUM(B2:B15)</f>
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C16" s="114">
         <f>SUM(C2:C15)</f>
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D16" s="115">
         <f t="shared" si="0"/>
-        <v>9.1603053435114496</v>
+        <v>58.653846153846153</v>
       </c>
       <c r="E16" s="116"/>
     </row>
@@ -7585,24 +7765,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="49"/>
-    <col min="3" max="5" width="8.7109375" style="50"/>
+    <col min="1" max="1" width="18.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="49"/>
+    <col min="3" max="5" width="8.6640625" style="50"/>
     <col min="6" max="6" width="73" style="28" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" style="28" customWidth="1"/>
     <col min="10" max="10" width="29" style="28" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="28"/>
+    <col min="11" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -7634,8 +7814,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -7654,16 +7834,22 @@
         <v>130</v>
       </c>
       <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A3" s="127"/>
+      <c r="I2" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="133"/>
       <c r="B3" s="35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="43">
         <v>1</v>
@@ -7675,19 +7861,23 @@
         <v>129</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A4" s="127"/>
+      <c r="I3" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="133"/>
       <c r="B4" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C4" s="43">
         <v>1</v>
@@ -7699,19 +7889,23 @@
         <v>129</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A5" s="127"/>
+      <c r="I4" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="133"/>
       <c r="B5" s="35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="43">
         <v>1</v>
@@ -7723,19 +7917,23 @@
         <v>129</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="127"/>
+      <c r="I5" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C6" s="43">
         <v>1</v>
@@ -7747,7 +7945,7 @@
         <v>129</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>6</v>
@@ -7756,10 +7954,10 @@
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C7" s="43">
         <v>1</v>
@@ -7771,19 +7969,19 @@
         <v>129</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="141" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="133"/>
       <c r="B8" s="35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C8" s="43">
         <v>1</v>
@@ -7795,19 +7993,23 @@
         <v>129</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A9" s="127"/>
+      <c r="I8" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C9" s="43">
         <v>1</v>
@@ -7819,19 +8021,19 @@
         <v>129</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C10" s="43">
         <v>1</v>
@@ -7843,19 +8045,23 @@
         <v>129</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A11" s="127"/>
+      <c r="I10" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="133"/>
       <c r="B11" s="35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -7867,19 +8073,23 @@
         <v>129</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A12" s="127"/>
+      <c r="I11" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="133"/>
       <c r="B12" s="35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C12" s="43">
         <v>1</v>
@@ -7891,19 +8101,21 @@
         <v>129</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A13" s="127"/>
+      <c r="J12" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="133"/>
       <c r="B13" s="35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C13" s="43">
         <v>1</v>
@@ -7915,21 +8127,23 @@
         <v>129</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="109.9" thickBot="1">
-      <c r="A14" s="127" t="s">
-        <v>154</v>
+      <c r="J13" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133" t="s">
+        <v>158</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C14" s="43">
         <v>1</v>
@@ -7938,22 +8152,28 @@
         <v>307</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1">
-      <c r="A15" s="127"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="128" t="s">
+        <v>692</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="133"/>
       <c r="B15" s="35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C15" s="43">
         <v>1</v>
@@ -7962,22 +8182,26 @@
         <v>304</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="94.15" thickBot="1">
-      <c r="A16" s="127"/>
+      <c r="I15" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133"/>
       <c r="B16" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C16" s="43">
         <v>1</v>
@@ -7987,19 +8211,19 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="133"/>
       <c r="B17" s="35" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C17" s="45">
         <v>3</v>
@@ -8008,10 +8232,10 @@
         <v>308</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>13</v>
@@ -8020,10 +8244,10 @@
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="133"/>
       <c r="B18" s="35" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C18" s="45">
         <v>3</v>
@@ -8032,10 +8256,10 @@
         <v>319</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>13</v>
@@ -8044,10 +8268,10 @@
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="133"/>
       <c r="B19" s="35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C19" s="45">
         <v>3</v>
@@ -8056,10 +8280,10 @@
         <v>308</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>13</v>
@@ -8068,10 +8292,10 @@
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="133"/>
       <c r="B20" s="35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C20" s="45">
         <v>3</v>
@@ -8080,10 +8304,10 @@
         <v>308</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>13</v>
@@ -8092,12 +8316,12 @@
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1">
-      <c r="A21" s="127" t="s">
-        <v>175</v>
+    <row r="21" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="133" t="s">
+        <v>179</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C21" s="43">
         <v>1</v>
@@ -8106,22 +8330,22 @@
         <v>330</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="133"/>
       <c r="B22" s="35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C22" s="46">
         <v>2</v>
@@ -8130,10 +8354,10 @@
         <v>308</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>13</v>
@@ -8142,10 +8366,10 @@
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="133"/>
       <c r="B23" s="35" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C23" s="46">
         <v>2</v>
@@ -8154,10 +8378,10 @@
         <v>287</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>13</v>
@@ -8166,12 +8390,12 @@
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" ht="94.15" thickBot="1">
-      <c r="A24" s="127" t="s">
-        <v>185</v>
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="133" t="s">
+        <v>189</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C24" s="46">
         <v>2</v>
@@ -8183,7 +8407,7 @@
         <v>129</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>13</v>
@@ -8192,10 +8416,10 @@
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="133"/>
       <c r="B25" s="35" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C25" s="46">
         <v>2</v>
@@ -8207,7 +8431,7 @@
         <v>129</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>13</v>
@@ -8216,10 +8440,10 @@
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="133"/>
       <c r="B26" s="35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C26" s="46">
         <v>2</v>
@@ -8231,7 +8455,7 @@
         <v>129</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>13</v>
@@ -8240,10 +8464,10 @@
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A27" s="127"/>
+    <row r="27" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="133"/>
       <c r="B27" s="35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C27" s="46">
         <v>2</v>
@@ -8255,7 +8479,7 @@
         <v>129</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>13</v>
@@ -8264,10 +8488,10 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" s="15" customFormat="1" ht="109.9" thickBot="1">
-      <c r="A28" s="127"/>
+    <row r="28" spans="1:10" s="15" customFormat="1" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="133"/>
       <c r="B28" s="35" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C28" s="46">
         <v>2</v>
@@ -8279,7 +8503,7 @@
         <v>129</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>13</v>
@@ -8288,12 +8512,12 @@
       <c r="I28" s="18"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A29" s="127" t="s">
-        <v>196</v>
+    <row r="29" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="133" t="s">
+        <v>200</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C29" s="43">
         <v>1</v>
@@ -8305,19 +8529,23 @@
         <v>129</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A30" s="127"/>
+      <c r="I29" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="133"/>
       <c r="B30" s="35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C30" s="43">
         <v>1</v>
@@ -8329,19 +8557,23 @@
         <v>129</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A31" s="127"/>
+      <c r="I30" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="133"/>
       <c r="B31" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C31" s="43">
         <v>1</v>
@@ -8353,19 +8585,23 @@
         <v>129</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A32" s="127"/>
+      <c r="I31" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="133"/>
       <c r="B32" s="35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C32" s="43">
         <v>1</v>
@@ -8374,22 +8610,22 @@
         <v>16</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A33" s="127"/>
+    <row r="33" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="133"/>
       <c r="B33" s="35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C33" s="43">
         <v>1</v>
@@ -8398,22 +8634,26 @@
         <v>304</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A34" s="127"/>
+      <c r="I33" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="133"/>
       <c r="B34" s="35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C34" s="43">
         <v>1</v>
@@ -8425,7 +8665,7 @@
         <v>129</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>13</v>
@@ -8434,10 +8674,10 @@
       <c r="I34" s="18"/>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A35" s="127"/>
+    <row r="35" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="133"/>
       <c r="B35" s="35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C35" s="46">
         <v>2</v>
@@ -8446,10 +8686,10 @@
         <v>308</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>13</v>
@@ -8458,12 +8698,12 @@
       <c r="I35" s="18"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" s="15" customFormat="1" ht="16.149999999999999" thickBot="1">
-      <c r="A36" s="127" t="s">
-        <v>212</v>
+    <row r="36" spans="1:10" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="133" t="s">
+        <v>216</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C36" s="46">
         <v>2</v>
@@ -8472,10 +8712,10 @@
         <v>308</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>13</v>
@@ -8484,10 +8724,10 @@
       <c r="I36" s="18"/>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A37" s="127"/>
+    <row r="37" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="133"/>
       <c r="B37" s="35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C37" s="46">
         <v>2</v>
@@ -8496,10 +8736,10 @@
         <v>330</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>13</v>
@@ -8508,10 +8748,10 @@
       <c r="I37" s="18"/>
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A38" s="127"/>
+    <row r="38" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="133"/>
       <c r="B38" s="35" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C38" s="46">
         <v>2</v>
@@ -8520,10 +8760,10 @@
         <v>310</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>13</v>
@@ -8532,12 +8772,12 @@
       <c r="I38" s="18"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A39" s="127" t="s">
-        <v>220</v>
+    <row r="39" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="133" t="s">
+        <v>224</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C39" s="43">
         <v>1</v>
@@ -8546,22 +8786,22 @@
         <v>287</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A40" s="127"/>
+    <row r="40" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="133"/>
       <c r="B40" s="35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C40" s="43">
         <v>1</v>
@@ -8570,22 +8810,22 @@
         <v>287</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A41" s="127"/>
+    <row r="41" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="133"/>
       <c r="B41" s="35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C41" s="43">
         <v>1</v>
@@ -8594,22 +8834,22 @@
         <v>287</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A42" s="127"/>
+    <row r="42" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="133"/>
       <c r="B42" s="35" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C42" s="43">
         <v>1</v>
@@ -8618,22 +8858,22 @@
         <v>523</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A43" s="127"/>
+    <row r="43" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="133"/>
       <c r="B43" s="35" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C43" s="46">
         <v>2</v>
@@ -8642,10 +8882,10 @@
         <v>256</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>13</v>
@@ -8654,10 +8894,10 @@
       <c r="I43" s="18"/>
       <c r="J43" s="22"/>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A44" s="127"/>
+    <row r="44" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="133"/>
       <c r="B44" s="35" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C44" s="46">
         <v>2</v>
@@ -8666,10 +8906,10 @@
         <v>310</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>13</v>
@@ -8678,12 +8918,12 @@
       <c r="I44" s="18"/>
       <c r="J44" s="22"/>
     </row>
-    <row r="45" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A45" s="127" t="s">
-        <v>234</v>
+    <row r="45" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="133" t="s">
+        <v>238</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C45" s="43">
         <v>1</v>
@@ -8692,22 +8932,26 @@
         <v>613</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A46" s="127"/>
+      <c r="I45" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="133"/>
       <c r="B46" s="35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C46" s="46">
         <v>2</v>
@@ -8716,10 +8960,10 @@
         <v>320</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>13</v>
@@ -8728,10 +8972,10 @@
       <c r="I46" s="18"/>
       <c r="J46" s="22"/>
     </row>
-    <row r="47" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A47" s="127"/>
+    <row r="47" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="133"/>
       <c r="B47" s="35" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C47" s="46">
         <v>2</v>
@@ -8740,10 +8984,10 @@
         <v>326</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>13</v>
@@ -8752,10 +8996,10 @@
       <c r="I47" s="18"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A48" s="127"/>
+    <row r="48" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="133"/>
       <c r="B48" s="35" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C48" s="46">
         <v>2</v>
@@ -8764,10 +9008,10 @@
         <v>287</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>13</v>
@@ -8776,10 +9020,10 @@
       <c r="I48" s="18"/>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A49" s="127"/>
+    <row r="49" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="133"/>
       <c r="B49" s="35" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C49" s="46">
         <v>2</v>
@@ -8788,10 +9032,10 @@
         <v>287</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>13</v>
@@ -8800,10 +9044,10 @@
       <c r="I49" s="18"/>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A50" s="127"/>
+    <row r="50" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="133"/>
       <c r="B50" s="35" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C50" s="46">
         <v>2</v>
@@ -8812,10 +9056,10 @@
         <v>613</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>13</v>
@@ -8824,10 +9068,10 @@
       <c r="I50" s="18"/>
       <c r="J50" s="22"/>
     </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A51" s="127"/>
+    <row r="51" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="133"/>
       <c r="B51" s="35" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C51" s="45">
         <v>3</v>
@@ -8836,10 +9080,10 @@
         <v>308</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>13</v>
@@ -8848,12 +9092,12 @@
       <c r="I51" s="18"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A52" s="127" t="s">
-        <v>253</v>
+    <row r="52" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="133" t="s">
+        <v>258</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C52" s="46">
         <v>2</v>
@@ -8862,10 +9106,10 @@
         <v>320</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>13</v>
@@ -8874,10 +9118,10 @@
       <c r="I52" s="18"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A53" s="127"/>
+    <row r="53" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="133"/>
       <c r="B53" s="35" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C53" s="46">
         <v>2</v>
@@ -8886,10 +9130,10 @@
         <v>330</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>13</v>
@@ -8898,10 +9142,10 @@
       <c r="I53" s="18"/>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" spans="1:10" s="15" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A54" s="127"/>
+    <row r="54" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="133"/>
       <c r="B54" s="35" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C54" s="46">
         <v>2</v>
@@ -8910,10 +9154,10 @@
         <v>327</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>13</v>
@@ -8922,24 +9166,24 @@
       <c r="I54" s="18"/>
       <c r="J54" s="22"/>
     </row>
-    <row r="55" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A55" s="127" t="s">
-        <v>261</v>
+    <row r="55" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="133" t="s">
+        <v>266</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D55" s="44">
         <v>287</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>13</v>
@@ -8948,22 +9192,22 @@
       <c r="I55" s="18"/>
       <c r="J55" s="22"/>
     </row>
-    <row r="56" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A56" s="127"/>
+    <row r="56" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="133"/>
       <c r="B56" s="35" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D56" s="44">
         <v>255</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>13</v>
@@ -8972,22 +9216,22 @@
       <c r="I56" s="18"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1">
-      <c r="A57" s="127"/>
+    <row r="57" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="133"/>
       <c r="B57" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="46" t="s">
         <v>268</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>263</v>
       </c>
       <c r="D57" s="44">
         <v>522</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>13</v>
@@ -8996,20 +9240,20 @@
       <c r="I57" s="18"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" spans="1:10" s="15" customFormat="1" ht="94.15" thickBot="1">
-      <c r="A58" s="127"/>
+    <row r="58" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="133"/>
       <c r="B58" s="35" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D58" s="48">
         <v>798</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="26" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G58" s="125" t="s">
         <v>13</v>
@@ -9038,6 +9282,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{AFB0A60F-5E60-4F71-B0FE-5C4789AE70A2}"/>
+    <hyperlink ref="H14" r:id="rId2" xr:uid="{5D0102C6-AEE3-4C4E-B53D-EE4AE25E72D1}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -9050,24 +9298,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="56" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67" customWidth="1"/>
     <col min="6" max="6" width="70" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="15" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="9" max="9" width="35.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -9099,12 +9347,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="83.25" thickBot="1">
+    <row r="2" spans="1:10" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -9114,7 +9362,7 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="39" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>6</v>
@@ -9123,12 +9371,12 @@
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="48.75">
-      <c r="A3" s="127" t="s">
-        <v>275</v>
+    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="133" t="s">
+        <v>280</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -9139,8 +9387,8 @@
       <c r="E3" s="62">
         <v>7.1</v>
       </c>
-      <c r="F3" s="129" t="s">
-        <v>277</v>
+      <c r="F3" s="126" t="s">
+        <v>282</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>6</v>
@@ -9149,10 +9397,10 @@
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="48.75">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -9164,7 +9412,7 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>6</v>
@@ -9173,10 +9421,10 @@
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -9188,7 +9436,7 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="122" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>6</v>
@@ -9197,10 +9445,10 @@
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="63" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -9212,7 +9460,7 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>13</v>
@@ -9221,12 +9469,12 @@
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A7" s="127" t="s">
-        <v>284</v>
+    <row r="7" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>289</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -9238,7 +9486,7 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>6</v>
@@ -9247,10 +9495,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="109.9" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -9262,19 +9510,23 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="129" t="s">
+        <v>695</v>
+      </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" ht="63" thickBot="1">
-      <c r="A9" s="127"/>
+      <c r="J8" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C9" s="63">
         <v>2</v>
@@ -9284,19 +9536,21 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="19" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>296</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -9308,7 +9562,7 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>13</v>
@@ -9317,12 +9571,12 @@
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="48.75">
-      <c r="A11" s="127" t="s">
-        <v>293</v>
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="133" t="s">
+        <v>299</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C11" s="61">
         <v>1</v>
@@ -9331,22 +9585,24 @@
         <v>614</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="129" t="s">
+        <v>697</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133"/>
       <c r="B12" s="57" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -9355,10 +9611,10 @@
         <v>1004</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>6</v>
@@ -9367,10 +9623,10 @@
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="48.75">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="133"/>
       <c r="B13" s="57" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -9379,22 +9635,24 @@
         <v>16</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>696</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="133"/>
       <c r="B14" s="57" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C14" s="61">
         <v>1</v>
@@ -9403,22 +9661,22 @@
         <v>16</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133"/>
       <c r="B15" s="57" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C15" s="61">
         <v>1</v>
@@ -9427,24 +9685,24 @@
         <v>16</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A16" s="127" t="s">
-        <v>305</v>
+    <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133" t="s">
+        <v>311</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C16" s="63">
         <v>2</v>
@@ -9453,10 +9711,10 @@
         <v>290</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>13</v>
@@ -9465,10 +9723,10 @@
       <c r="I16" s="18"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="133"/>
       <c r="B17" s="57" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C17" s="63">
         <v>2</v>
@@ -9478,7 +9736,7 @@
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="19" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>13</v>
@@ -9487,10 +9745,10 @@
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="133"/>
       <c r="B18" s="57" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C18" s="63">
         <v>2</v>
@@ -9500,7 +9758,7 @@
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="19" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>13</v>
@@ -9509,12 +9767,12 @@
       <c r="I18" s="18"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A19" s="127" t="s">
-        <v>313</v>
+    <row r="19" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="133" t="s">
+        <v>319</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C19" s="64">
         <v>3</v>
@@ -9523,10 +9781,10 @@
         <v>613</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>13</v>
@@ -9535,10 +9793,10 @@
       <c r="I19" s="18"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="133"/>
       <c r="B20" s="57" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C20" s="64">
         <v>3</v>
@@ -9547,10 +9805,10 @@
         <v>613</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>13</v>
@@ -9559,12 +9817,12 @@
       <c r="I20" s="18"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" ht="84.6" thickBot="1">
+    <row r="21" spans="1:10" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C21" s="65">
         <v>1</v>
@@ -9574,26 +9832,26 @@
       </c>
       <c r="E21" s="66"/>
       <c r="F21" s="26" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -9613,6 +9871,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{2522F581-964A-4897-A071-CA343E4747E4}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{4D7CB314-CE84-48FB-8EC5-E8AA5DC665DC}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{820CEE91-6CA4-406E-80DE-5AD4AB4BF97C}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -9625,24 +9888,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="7"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="68.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="1" width="22.6640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="68.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="29" customFormat="1" ht="36.6" thickBot="1">
+    <row r="1" spans="1:10" s="29" customFormat="1" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -9674,12 +9937,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>322</v>
+    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>328</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -9689,19 +9952,19 @@
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="39" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="53" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -9711,17 +9974,19 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>332</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="53" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -9731,17 +9996,19 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>334</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="53" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -9751,17 +10018,19 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" s="18"/>
+        <v>336</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="53" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -9771,19 +10040,21 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>338</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A7" s="127" t="s">
-        <v>333</v>
+    <row r="7" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>339</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -9793,17 +10064,19 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>341</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="53" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -9813,19 +10086,21 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>343</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A9" s="127" t="s">
-        <v>338</v>
+    <row r="9" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133" t="s">
+        <v>344</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -9835,17 +10110,21 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="63" thickBot="1">
-      <c r="A10" s="127"/>
+      <c r="J9" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="53" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -9855,17 +10134,19 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>348</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="63" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="53" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -9875,7 +10156,7 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>13</v>
@@ -9913,20 +10194,20 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="60.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="60.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="15" customWidth="1"/>
     <col min="10" max="10" width="29" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -9958,12 +10239,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>345</v>
+    <row r="2" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>351</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -9973,17 +10254,19 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="40"/>
+        <v>353</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -9993,17 +10276,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>355</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -10013,17 +10298,19 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>357</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="109.9" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -10033,17 +10320,19 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="18"/>
+        <v>359</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -10053,19 +10342,21 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>361</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="63" thickBot="1">
-      <c r="A7" s="127" t="s">
-        <v>356</v>
+    <row r="7" spans="1:10" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>362</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -10075,17 +10366,19 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>363</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -10095,17 +10388,19 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>365</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -10115,17 +10410,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>360</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>366</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="63" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -10135,17 +10432,19 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>362</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>368</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C11" s="61">
         <v>1</v>
@@ -10155,17 +10454,19 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>369</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="63" thickBot="1">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133"/>
       <c r="B12" s="57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -10175,17 +10476,19 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>370</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="63" thickBot="1">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133"/>
       <c r="B13" s="57" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -10195,17 +10498,19 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>372</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="63" thickBot="1">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133"/>
       <c r="B14" s="57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="61">
         <v>1</v>
@@ -10215,19 +10520,21 @@
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="G14" s="18"/>
+        <v>373</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="125.45" thickBot="1">
-      <c r="A15" s="127" t="s">
-        <v>368</v>
+    <row r="15" spans="1:10" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133" t="s">
+        <v>374</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C15" s="61">
         <v>1</v>
@@ -10237,17 +10544,21 @@
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" s="18"/>
+        <v>376</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>701</v>
+      </c>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133"/>
       <c r="B16" s="57" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C16" s="61">
         <v>1</v>
@@ -10257,17 +10568,19 @@
       </c>
       <c r="E16" s="62"/>
       <c r="F16" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="G16" s="18"/>
+        <v>378</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="63" thickBot="1">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="133"/>
       <c r="B17" s="57" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C17" s="61">
         <v>1</v>
@@ -10277,17 +10590,19 @@
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="71" t="s">
-        <v>374</v>
-      </c>
-      <c r="G17" s="18"/>
+        <v>380</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:10" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="133"/>
       <c r="B18" s="57" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C18" s="61">
         <v>1</v>
@@ -10297,17 +10612,21 @@
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="G18" s="18"/>
+        <v>382</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>701</v>
+      </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="133"/>
       <c r="B19" s="57" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C19" s="61">
         <v>1</v>
@@ -10317,17 +10636,19 @@
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="71" t="s">
-        <v>378</v>
-      </c>
-      <c r="G19" s="18"/>
+        <v>384</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="94.15" thickBot="1">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="133"/>
       <c r="B20" s="57" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C20" s="61">
         <v>1</v>
@@ -10337,17 +10658,19 @@
       </c>
       <c r="E20" s="62"/>
       <c r="F20" s="71" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="18"/>
+        <v>386</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A21" s="127"/>
+    <row r="21" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="133"/>
       <c r="B21" s="57" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C21" s="61">
         <v>1</v>
@@ -10357,17 +10680,19 @@
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="71" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" s="18"/>
+        <v>388</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="133"/>
       <c r="B22" s="57" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C22" s="61">
         <v>1</v>
@@ -10377,17 +10702,19 @@
       </c>
       <c r="E22" s="62"/>
       <c r="F22" s="71" t="s">
-        <v>384</v>
-      </c>
-      <c r="G22" s="18"/>
+        <v>390</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="133"/>
       <c r="B23" s="57" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C23" s="61">
         <v>1</v>
@@ -10397,17 +10724,19 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="G23" s="18"/>
+        <v>392</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="133"/>
       <c r="B24" s="57" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C24" s="61">
         <v>1</v>
@@ -10417,19 +10746,21 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="G24" s="18"/>
+        <v>394</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A25" s="127" t="s">
-        <v>389</v>
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="133" t="s">
+        <v>395</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C25" s="63">
         <v>2</v>
@@ -10439,7 +10770,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="71" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>13</v>
@@ -10448,10 +10779,10 @@
       <c r="I25" s="18"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="133"/>
       <c r="B26" s="57" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C26" s="63">
         <v>2</v>
@@ -10461,7 +10792,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="71" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>13</v>
@@ -10470,10 +10801,10 @@
       <c r="I26" s="18"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A27" s="127"/>
+    <row r="27" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="133"/>
       <c r="B27" s="57" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C27" s="63">
         <v>2</v>
@@ -10483,7 +10814,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="71" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>13</v>
@@ -10492,12 +10823,12 @@
       <c r="I27" s="18"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="63" thickBot="1">
-      <c r="A28" s="127" t="s">
-        <v>396</v>
+    <row r="28" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="133" t="s">
+        <v>402</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C28" s="61">
         <v>1</v>
@@ -10507,17 +10838,19 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="G28" s="18"/>
+        <v>404</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" ht="63" thickBot="1">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="133"/>
       <c r="B29" s="57" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C29" s="61">
         <v>1</v>
@@ -10527,17 +10860,19 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>406</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="133"/>
       <c r="B30" s="57" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C30" s="61">
         <v>1</v>
@@ -10547,17 +10882,19 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="G30" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="133"/>
       <c r="B31" s="57" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C31" s="65">
         <v>1</v>
@@ -10567,9 +10904,11 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="25"/>
+        <v>410</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="27"/>
@@ -10602,23 +10941,23 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="97.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="97.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" style="15" customWidth="1"/>
     <col min="9" max="9" width="18" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="10" max="10" width="27.33203125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -10650,12 +10989,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>405</v>
+    <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>411</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C2" s="73">
         <v>2</v>
@@ -10665,19 +11004,19 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="60"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A3" s="127"/>
+      <c r="J2" s="131"/>
+    </row>
+    <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -10687,19 +11026,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -10709,21 +11048,21 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="G4" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A5" s="127" t="s">
-        <v>411</v>
+    <row r="5" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133" t="s">
+        <v>417</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -10733,19 +11072,23 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>131</v>
+        <v>419</v>
+      </c>
+      <c r="G5" s="130" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127"/>
+      <c r="I5" t="s">
+        <v>699</v>
+      </c>
+      <c r="J5" s="131" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -10755,7 +11098,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
@@ -10764,10 +11107,10 @@
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -10777,7 +11120,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
@@ -10786,10 +11129,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133"/>
       <c r="B8" s="57" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -10799,7 +11142,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>13</v>
@@ -10808,10 +11151,10 @@
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C9" s="63">
         <v>2</v>
@@ -10821,19 +11164,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -10843,7 +11186,7 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>13</v>
@@ -10852,10 +11195,10 @@
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C11" s="64">
         <v>3</v>
@@ -10865,19 +11208,19 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A12" s="127"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133"/>
       <c r="B12" s="57" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C12" s="64">
         <v>3</v>
@@ -10887,7 +11230,7 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>13</v>
@@ -10896,12 +11239,12 @@
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A13" s="127" t="s">
-        <v>428</v>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133" t="s">
+        <v>434</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C13" s="63">
         <v>2</v>
@@ -10911,7 +11254,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="71" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>13</v>
@@ -10920,10 +11263,10 @@
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133"/>
       <c r="B14" s="57" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C14" s="63">
         <v>2</v>
@@ -10933,7 +11276,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="71" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>13</v>
@@ -10942,10 +11285,10 @@
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133"/>
       <c r="B15" s="57" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C15" s="64">
         <v>3</v>
@@ -10955,7 +11298,7 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="71" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>13</v>
@@ -10964,12 +11307,12 @@
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A16" s="127" t="s">
-        <v>435</v>
+    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133" t="s">
+        <v>441</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C16" s="63">
         <v>2</v>
@@ -10979,7 +11322,7 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="71" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>13</v>
@@ -10988,10 +11331,10 @@
       <c r="I16" s="18"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="133"/>
       <c r="B17" s="57" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C17" s="69">
         <v>2</v>
@@ -11001,7 +11344,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="72" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G17" s="125" t="s">
         <v>13</v>
@@ -11036,24 +11379,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
-    <col min="6" max="6" width="80.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
+    <col min="6" max="6" width="80.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="15" customWidth="1"/>
     <col min="8" max="8" width="31" style="15" customWidth="1"/>
     <col min="9" max="9" width="24" style="15" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="10" max="10" width="35.33203125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="78" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="78" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -11085,12 +11428,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>440</v>
+    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>446</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C2" s="79">
         <v>1</v>
@@ -11100,7 +11443,7 @@
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="82" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G2" s="83" t="s">
         <v>6</v>
@@ -11109,10 +11452,10 @@
       <c r="I2" s="83"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="3" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -11122,19 +11465,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="63" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -11144,7 +11487,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
@@ -11153,10 +11496,10 @@
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -11166,7 +11509,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
@@ -11175,12 +11518,12 @@
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A6" s="127" t="s">
-        <v>447</v>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133" t="s">
+        <v>453</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -11190,7 +11533,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
@@ -11199,10 +11542,10 @@
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -11212,7 +11555,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
@@ -11221,12 +11564,12 @@
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A8" s="127" t="s">
-        <v>451</v>
+    <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133" t="s">
+        <v>457</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -11236,7 +11579,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>13</v>
@@ -11245,10 +11588,10 @@
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C9" s="63">
         <v>2</v>
@@ -11258,7 +11601,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>13</v>
@@ -11267,10 +11610,10 @@
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -11280,7 +11623,7 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>13</v>
@@ -11289,10 +11632,10 @@
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="63" thickBot="1">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="57" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C11" s="63">
         <v>2</v>
@@ -11300,7 +11643,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>13</v>
@@ -11309,12 +11652,12 @@
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="63" thickBot="1">
-      <c r="A12" s="127" t="s">
-        <v>460</v>
+    <row r="12" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133" t="s">
+        <v>466</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -11324,19 +11667,19 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133"/>
       <c r="B13" s="57" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C13" s="63">
         <v>2</v>
@@ -11346,7 +11689,7 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>13</v>
@@ -11355,10 +11698,10 @@
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133"/>
       <c r="B14" s="57" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C14" s="69">
         <v>2</v>
@@ -11368,7 +11711,7 @@
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="72" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G14" s="125" t="s">
         <v>13</v>
@@ -11403,24 +11746,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="5" width="8.7109375" style="67"/>
+    <col min="1" max="1" width="19.44140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="5" width="8.6640625" style="67"/>
     <col min="6" max="6" width="93" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="15"/>
+    <col min="7" max="7" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -11452,12 +11795,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A2" s="127" t="s">
-        <v>467</v>
+    <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>473</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C2" s="73">
         <v>2</v>
@@ -11467,7 +11810,7 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>13</v>
@@ -11476,10 +11819,10 @@
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133"/>
       <c r="B3" s="57" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -11489,7 +11832,7 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>13</v>
@@ -11498,10 +11841,10 @@
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133"/>
       <c r="B4" s="57" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -11511,7 +11854,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
@@ -11520,10 +11863,10 @@
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133"/>
       <c r="B5" s="57" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -11533,7 +11876,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
@@ -11542,10 +11885,10 @@
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133"/>
       <c r="B6" s="57" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C6" s="64">
         <v>3</v>
@@ -11555,7 +11898,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
@@ -11564,10 +11907,10 @@
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="57" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C7" s="64">
         <v>3</v>
@@ -11577,7 +11920,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
@@ -11586,12 +11929,12 @@
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A8" s="127" t="s">
-        <v>480</v>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="133" t="s">
+        <v>486</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -11601,17 +11944,19 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>482</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>488</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
       <c r="B9" s="57" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -11621,17 +11966,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>484</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>490</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="57" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -11641,19 +11988,23 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>486</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>492</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A11" s="127" t="s">
-        <v>487</v>
+      <c r="J10" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133" t="s">
+        <v>493</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C11" s="61">
         <v>1</v>
@@ -11663,17 +12014,17 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="16.149999999999999" thickBot="1">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133"/>
       <c r="B12" s="57" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -11683,17 +12034,19 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>491</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>497</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133"/>
       <c r="B13" s="57" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -11703,18 +12056,18 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>493</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>499</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A14" s="127"/>
-      <c r="B14" s="57" t="s">
-        <v>494</v>
-      </c>
+    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="133"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="61">
         <v>1</v>
       </c>
@@ -11723,17 +12076,23 @@
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="71" t="s">
-        <v>495</v>
-      </c>
-      <c r="G14" s="18"/>
+        <v>500</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A15" s="127"/>
+      <c r="I14" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="133"/>
       <c r="B15" s="57" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C15" s="63">
         <v>2</v>
@@ -11743,7 +12102,7 @@
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="71" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>13</v>
@@ -11752,10 +12111,10 @@
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="133"/>
       <c r="B16" s="57" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C16" s="63">
         <v>2</v>
@@ -11765,7 +12124,7 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="71" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>13</v>
@@ -11774,10 +12133,10 @@
       <c r="I16" s="18"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="47.45" thickBot="1">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="133"/>
       <c r="B17" s="57" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C17" s="63">
         <v>2</v>
@@ -11787,7 +12146,7 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="71" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>13</v>
@@ -11796,10 +12155,10 @@
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="31.9" thickBot="1">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="133"/>
       <c r="B18" s="57" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C18" s="69">
         <v>2</v>
@@ -11809,7 +12168,7 @@
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="72" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>13</v>
